--- a/docs/AWS_SQL_Server_Container_Hosting_Strategy_diagram - Full_Dev.xlsx
+++ b/docs/AWS_SQL_Server_Container_Hosting_Strategy_diagram - Full_Dev.xlsx
@@ -1267,6 +1267,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1569,7 +1573,7 @@
   <dimension ref="E30:E31"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+      <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/AWS_SQL_Server_Container_Hosting_Strategy_diagram - Full_Dev.xlsx
+++ b/docs/AWS_SQL_Server_Container_Hosting_Strategy_diagram - Full_Dev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1295cc705891211/Work/ProgrammingExperiments/ASP.NET/Pitcher/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{67DEDEE9-CCF0-43DF-9810-0A925999DD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EAE4503-7505-46BF-943B-B2F248C87D3C}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{67DEDEE9-CCF0-43DF-9810-0A925999DD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB84F1D5-95EB-4F28-86DC-27A4EA6380A3}"/>
   <bookViews>
     <workbookView xWindow="13965" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{80A68369-CECB-4987-BA8A-C95284560FC2}"/>
   </bookViews>
@@ -36,22 +36,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">1. Push development </t>
   </si>
   <si>
     <t xml:space="preserve">image. </t>
   </si>
+  <si>
+    <t>Import the database, change the schema and containerize again.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,15 +175,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>92449</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>92449</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>64995</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -187,8 +198,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3109233" y="6515101"/>
-          <a:ext cx="1224643" cy="609600"/>
+          <a:off x="3118037" y="7265895"/>
+          <a:ext cx="1210236" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -227,15 +238,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>92448</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>64995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>160021</xdr:rowOff>
+      <xdr:colOff>92449</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>148815</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -252,7 +263,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3721554" y="7124701"/>
+          <a:off x="3723154" y="7875495"/>
           <a:ext cx="1" cy="274320"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -279,15 +290,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>82717</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>138452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>130342</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>138452</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -302,8 +313,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3109232" y="7381875"/>
-          <a:ext cx="1272268" cy="0"/>
+          <a:off x="3140743" y="8139452"/>
+          <a:ext cx="1270836" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -494,15 +505,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>24600</xdr:colOff>
+      <xdr:colOff>24601</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>92449</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -520,8 +531,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3698529" y="2609850"/>
-          <a:ext cx="23026" cy="3905251"/>
+          <a:off x="3655307" y="2609850"/>
+          <a:ext cx="67848" cy="4656045"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -820,15 +831,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:colOff>92449</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>35966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>385400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>141195</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -846,8 +857,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4333876" y="2702966"/>
-          <a:ext cx="2174738" cy="4116935"/>
+          <a:off x="4328273" y="2702966"/>
+          <a:ext cx="2108303" cy="4867729"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1253,17 +1264,145 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Write</a:t>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Export container data to S3 bucket as .</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> container data to S3 bucket</a:t>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bak</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0367D31-4D4D-4CAE-A6AA-79BBA2BFB83F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8885464" y="6136821"/>
+          <a:ext cx="2013857" cy="661307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>484651</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2CCB16-7466-46A0-AB03-3DA4AEB7BAFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4440115" y="2111220"/>
+          <a:ext cx="7599094" cy="5582049"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3008"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1570,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BC4DF-A387-41E4-AAE5-CDB1A0FF6843}">
-  <dimension ref="E30:E31"/>
+  <dimension ref="E30:N40"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI9" sqref="AI9"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,6 +1730,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
